--- a/public/download/themtaisantufile.xlsx
+++ b/public/download/themtaisantufile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\QRProject\public\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\qrproject\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -177,7 +177,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(dd-mm-yyyy)</t>
+      <t>(dd/mm/yyyy)</t>
     </r>
   </si>
   <si>
@@ -200,7 +200,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">        (dd-mm-yyyy)</t>
+      <t xml:space="preserve">        (dd/mm/yyyy)</t>
     </r>
   </si>
 </sst>
@@ -296,17 +296,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -601,38 +601,38 @@
     <col min="4" max="4" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15" style="6" customWidth="1"/>
     <col min="8" max="8" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" style="6" customWidth="1"/>
     <col min="10" max="10" width="13.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.453125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -653,13 +653,13 @@
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -679,9 +679,9 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
